--- a/medicine/Enfance/J._C._Burke/J._C._Burke.xlsx
+++ b/medicine/Enfance/J._C._Burke/J._C._Burke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">J. C. Burke, née en 1965 à Sydney, en Australie, est une autrice australienne de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jane Catherine Burke suit une formation d'infirmière au Royal Prince Alfred Hospital (en) et se spécialise en oncologie. Puis, elle suit un cours d'écriture à l'université de Sydney.
 En 2003, elle publie son premier roman, White Lies. En 2005, elle fait paraître The Story of Tom Brennan avec lequel elle est lauréate du Children's Book of the Year Award: Older Readers (en) 2006. Avec Pig Boy paru en 2011, elle remporte le prix Ned Kelly 2012 du meilleur roman.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-White Lies (2003)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>White Lies (2003)
 The Red Cardigan (2004)
 Nine Letters Long (2005)
 The Story of Tom Brennan (en) (2005)
@@ -585,11 +604,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Prix
-Children's Book of the Year Award: Older Readers (en) 2006 pour The Story of Tom Brennan[1]
-Prix Ned Kelly 2012 du meilleur roman pour Pig Boy[2]
-Nomination
-Davitt Award (en) 2012 pour Pig Boy</t>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Children's Book of the Year Award: Older Readers (en) 2006 pour The Story of Tom Brennan
+Prix Ned Kelly 2012 du meilleur roman pour Pig Boy</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>J._C._Burke</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/J._C._Burke</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Davitt Award (en) 2012 pour Pig Boy</t>
         </is>
       </c>
     </row>
